--- a/data_table.xlsx
+++ b/data_table.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="72" windowWidth="10500" windowHeight="7416"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="12828" windowHeight="9708"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$440</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -264,12 +264,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,12 +290,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,10 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="M420" sqref="M420"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I438" sqref="I438:J438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -637,7 +648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -669,7 +680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -701,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -733,7 +744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -765,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -797,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -829,7 +840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -861,12 +872,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -898,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -930,7 +941,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -962,7 +973,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -994,7 +1005,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1026,12 +1037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>521</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="I16" t="s">
         <v>15</v>
@@ -1063,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -1150,7 +1161,7 @@
         <v>15</v>
       </c>
       <c r="H19">
-        <v>399</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="I19" t="s">
         <v>15</v>
@@ -1159,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1255,12 +1266,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1303,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1335,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1367,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
@@ -1388,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>16</v>
       </c>
@@ -1420,12 +1431,12 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
@@ -1489,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
@@ -1521,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>16</v>
       </c>
@@ -1585,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>16</v>
       </c>
@@ -1617,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>16</v>
       </c>
@@ -1649,12 +1660,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -1686,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1793,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>16</v>
       </c>
@@ -1814,12 +1825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -1851,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>16</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>16</v>
       </c>
@@ -1915,7 +1926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>16</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>16</v>
       </c>
@@ -1979,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
@@ -2011,29 +2022,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>4244356</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="4">
         <v>47159</v>
       </c>
-      <c r="E50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="4">
         <v>0.5</v>
       </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
-      <c r="H50" t="s">
+      <c r="G50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I50" t="s">
@@ -2043,12 +2054,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>16</v>
       </c>
@@ -2112,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2144,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>16</v>
       </c>
@@ -2176,7 +2187,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>16</v>
       </c>
@@ -2201,19 +2212,19 @@
       <c r="H56" t="s">
         <v>15</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="I56" s="4">
+        <v>0</v>
+      </c>
+      <c r="J56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>32</v>
       </c>
@@ -2245,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>32</v>
       </c>
@@ -2277,7 +2288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>32</v>
       </c>
@@ -2309,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>32</v>
       </c>
@@ -2341,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>32</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>32</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
@@ -2437,12 +2448,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -2474,7 +2485,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -2506,7 +2517,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>32</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>32</v>
       </c>
@@ -2570,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>32</v>
       </c>
@@ -2602,12 +2613,12 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>32</v>
       </c>
@@ -2671,7 +2682,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>32</v>
       </c>
@@ -2703,7 +2714,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>32</v>
       </c>
@@ -2735,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
@@ -2767,12 +2778,12 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>32</v>
       </c>
@@ -2804,7 +2815,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>32</v>
       </c>
@@ -2836,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>32</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>32</v>
       </c>
@@ -2900,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>32</v>
       </c>
@@ -2932,12 +2943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>32</v>
       </c>
@@ -2969,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>32</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>32</v>
       </c>
@@ -3033,7 +3044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>32</v>
       </c>
@@ -3065,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>32</v>
       </c>
@@ -3097,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>32</v>
       </c>
@@ -3129,7 +3140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>32</v>
       </c>
@@ -3161,12 +3172,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>32</v>
       </c>
@@ -3198,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>32</v>
       </c>
@@ -3230,7 +3241,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>32</v>
       </c>
@@ -3262,7 +3273,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>32</v>
       </c>
@@ -3294,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>32</v>
       </c>
@@ -3326,12 +3337,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>32</v>
       </c>
@@ -3363,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>32</v>
       </c>
@@ -3395,7 +3406,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>32</v>
       </c>
@@ -3427,7 +3438,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>32</v>
       </c>
@@ -3459,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>32</v>
       </c>
@@ -3491,12 +3502,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>32</v>
       </c>
@@ -3528,7 +3539,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>32</v>
       </c>
@@ -3560,7 +3571,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>32</v>
       </c>
@@ -3592,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>32</v>
       </c>
@@ -3624,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>32</v>
       </c>
@@ -3656,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>32</v>
       </c>
@@ -3688,12 +3699,12 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>32</v>
       </c>
@@ -3725,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>32</v>
       </c>
@@ -3789,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
@@ -3821,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>32</v>
       </c>
@@ -3853,7 +3864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>32</v>
       </c>
@@ -3885,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>32</v>
       </c>
@@ -3917,12 +3928,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>32</v>
       </c>
@@ -3954,7 +3965,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>32</v>
       </c>
@@ -3986,7 +3997,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>32</v>
       </c>
@@ -4018,7 +4029,7 @@
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>32</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -4082,12 +4093,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>32</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
@@ -4151,7 +4162,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>32</v>
       </c>
@@ -4183,7 +4194,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>32</v>
       </c>
@@ -4215,7 +4226,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>32</v>
       </c>
@@ -4247,12 +4258,12 @@
         <v>0.154</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>32</v>
       </c>
@@ -4284,7 +4295,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>32</v>
       </c>
@@ -4316,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>32</v>
       </c>
@@ -4348,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>32</v>
       </c>
@@ -4380,7 +4391,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>32</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>32</v>
       </c>
@@ -4444,12 +4455,12 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>32</v>
       </c>
@@ -4481,7 +4492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>32</v>
       </c>
@@ -4513,7 +4524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>32</v>
       </c>
@@ -4545,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>32</v>
       </c>
@@ -4577,7 +4588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>32</v>
       </c>
@@ -4609,7 +4620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>32</v>
       </c>
@@ -4641,7 +4652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>32</v>
       </c>
@@ -4673,12 +4684,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>32</v>
       </c>
@@ -4710,7 +4721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>32</v>
       </c>
@@ -4742,7 +4753,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>32</v>
       </c>
@@ -4774,7 +4785,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>32</v>
       </c>
@@ -4806,7 +4817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>32</v>
       </c>
@@ -4838,12 +4849,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>32</v>
       </c>
@@ -4875,7 +4886,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>32</v>
       </c>
@@ -4907,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>32</v>
       </c>
@@ -4939,7 +4950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>32</v>
       </c>
@@ -4971,7 +4982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>32</v>
       </c>
@@ -5003,12 +5014,12 @@
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>32</v>
       </c>
@@ -5040,7 +5051,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>32</v>
       </c>
@@ -5072,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>32</v>
       </c>
@@ -5104,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>32</v>
       </c>
@@ -5136,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>32</v>
       </c>
@@ -5168,7 +5179,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>32</v>
       </c>
@@ -5200,12 +5211,12 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>32</v>
       </c>
@@ -5237,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2" t="s">
         <v>32</v>
       </c>
@@ -5269,7 +5280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>32</v>
       </c>
@@ -5301,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2" t="s">
         <v>32</v>
       </c>
@@ -5333,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2" t="s">
         <v>32</v>
       </c>
@@ -5365,7 +5376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2" t="s">
         <v>32</v>
       </c>
@@ -5397,7 +5408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>32</v>
       </c>
@@ -5429,12 +5440,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>32</v>
       </c>
@@ -5466,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>32</v>
       </c>
@@ -5498,7 +5509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>32</v>
       </c>
@@ -5530,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>32</v>
       </c>
@@ -5562,7 +5573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>32</v>
       </c>
@@ -5594,12 +5605,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>32</v>
       </c>
@@ -5631,7 +5642,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>32</v>
       </c>
@@ -5663,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>32</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>32</v>
       </c>
@@ -5727,7 +5738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>32</v>
       </c>
@@ -5759,12 +5770,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>32</v>
       </c>
@@ -5796,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>32</v>
       </c>
@@ -5828,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>32</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>32</v>
       </c>
@@ -5892,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>32</v>
       </c>
@@ -5924,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>32</v>
       </c>
@@ -5956,7 +5967,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="191" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>32</v>
       </c>
@@ -5988,12 +5999,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>32</v>
       </c>
@@ -6025,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>32</v>
       </c>
@@ -6057,7 +6068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>32</v>
       </c>
@@ -6089,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>32</v>
       </c>
@@ -6121,7 +6132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>32</v>
       </c>
@@ -6153,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>32</v>
       </c>
@@ -6185,7 +6196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>32</v>
       </c>
@@ -6217,12 +6228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>32</v>
       </c>
@@ -6254,7 +6265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>32</v>
       </c>
@@ -6286,7 +6297,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>32</v>
       </c>
@@ -6318,7 +6329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>32</v>
       </c>
@@ -6350,7 +6361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>32</v>
       </c>
@@ -6382,12 +6393,12 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>32</v>
       </c>
@@ -6419,7 +6430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>32</v>
       </c>
@@ -6451,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>32</v>
       </c>
@@ -6483,7 +6494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>32</v>
       </c>
@@ -6515,7 +6526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>32</v>
       </c>
@@ -6547,12 +6558,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>32</v>
       </c>
@@ -6584,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>32</v>
       </c>
@@ -6616,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>32</v>
       </c>
@@ -6648,7 +6659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>32</v>
       </c>
@@ -6680,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>32</v>
       </c>
@@ -6712,7 +6723,7 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>32</v>
       </c>
@@ -6744,7 +6755,7 @@
         <v>0.41699999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>32</v>
       </c>
@@ -6776,12 +6787,12 @@
         <v>0.222</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>32</v>
       </c>
@@ -6813,7 +6824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>32</v>
       </c>
@@ -6845,7 +6856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>32</v>
       </c>
@@ -6877,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2" t="s">
         <v>32</v>
       </c>
@@ -6909,7 +6920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>32</v>
       </c>
@@ -6941,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>32</v>
       </c>
@@ -6973,7 +6984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>32</v>
       </c>
@@ -7005,12 +7016,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>32</v>
       </c>
@@ -7042,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>32</v>
       </c>
@@ -7074,7 +7085,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>32</v>
       </c>
@@ -7106,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>32</v>
       </c>
@@ -7138,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>32</v>
       </c>
@@ -7170,12 +7181,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>32</v>
       </c>
@@ -7207,7 +7218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>32</v>
       </c>
@@ -7239,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>32</v>
       </c>
@@ -7271,7 +7282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>32</v>
       </c>
@@ -7303,7 +7314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>32</v>
       </c>
@@ -7335,12 +7346,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="240" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>32</v>
       </c>
@@ -7372,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>32</v>
       </c>
@@ -7404,7 +7415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>32</v>
       </c>
@@ -7436,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>32</v>
       </c>
@@ -7468,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>32</v>
       </c>
@@ -7500,12 +7511,12 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="246" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>32</v>
       </c>
@@ -7537,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>32</v>
       </c>
@@ -7569,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>32</v>
       </c>
@@ -7601,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>32</v>
       </c>
@@ -7633,7 +7644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>32</v>
       </c>
@@ -7665,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>32</v>
       </c>
@@ -7697,7 +7708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>32</v>
       </c>
@@ -7729,12 +7740,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>32</v>
       </c>
@@ -7766,7 +7777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>32</v>
       </c>
@@ -7798,7 +7809,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>32</v>
       </c>
@@ -7830,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>32</v>
       </c>
@@ -7862,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>32</v>
       </c>
@@ -7894,12 +7905,12 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="260" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>32</v>
       </c>
@@ -7931,7 +7942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>32</v>
       </c>
@@ -7963,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>32</v>
       </c>
@@ -7995,7 +8006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>32</v>
       </c>
@@ -8027,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>32</v>
       </c>
@@ -8059,12 +8070,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="266" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>32</v>
       </c>
@@ -8096,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>32</v>
       </c>
@@ -8128,7 +8139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>32</v>
       </c>
@@ -8160,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>32</v>
       </c>
@@ -8192,7 +8203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>32</v>
       </c>
@@ -8224,12 +8235,12 @@
         <v>0.185</v>
       </c>
     </row>
-    <row r="272" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>46</v>
       </c>
@@ -8261,7 +8272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>47</v>
       </c>
@@ -8293,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>47</v>
       </c>
@@ -8325,7 +8336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>47</v>
       </c>
@@ -8357,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>47</v>
       </c>
@@ -8389,7 +8400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>47</v>
       </c>
@@ -8421,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>47</v>
       </c>
@@ -8453,12 +8464,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>47</v>
       </c>
@@ -8490,7 +8501,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>47</v>
       </c>
@@ -8522,7 +8533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>47</v>
       </c>
@@ -8554,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>47</v>
       </c>
@@ -8586,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>47</v>
       </c>
@@ -8618,12 +8629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
         <v>46</v>
       </c>
@@ -8655,7 +8666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
         <v>47</v>
       </c>
@@ -8687,7 +8698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
         <v>47</v>
       </c>
@@ -8719,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
         <v>47</v>
       </c>
@@ -8751,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
         <v>47</v>
       </c>
@@ -8783,7 +8794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
         <v>47</v>
       </c>
@@ -8815,7 +8826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
         <v>47</v>
       </c>
@@ -8847,12 +8858,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
         <v>47</v>
       </c>
@@ -8884,7 +8895,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>47</v>
       </c>
@@ -8916,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
         <v>47</v>
       </c>
@@ -8948,7 +8959,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
         <v>47</v>
       </c>
@@ -8980,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
         <v>47</v>
       </c>
@@ -9012,12 +9023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
         <v>46</v>
       </c>
@@ -9049,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
         <v>47</v>
       </c>
@@ -9081,7 +9092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
         <v>47</v>
       </c>
@@ -9113,7 +9124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
         <v>47</v>
       </c>
@@ -9145,7 +9156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
         <v>47</v>
       </c>
@@ -9177,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>47</v>
       </c>
@@ -9209,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
         <v>47</v>
       </c>
@@ -9241,12 +9252,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="309" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
         <v>47</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
         <v>47</v>
       </c>
@@ -9310,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
         <v>47</v>
       </c>
@@ -9342,7 +9353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
         <v>47</v>
       </c>
@@ -9374,7 +9385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>47</v>
       </c>
@@ -9406,12 +9417,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
         <v>46</v>
       </c>
@@ -9443,7 +9454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>47</v>
       </c>
@@ -9475,7 +9486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>47</v>
       </c>
@@ -9507,7 +9518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
         <v>47</v>
       </c>
@@ -9539,7 +9550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
         <v>47</v>
       </c>
@@ -9571,7 +9582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
         <v>47</v>
       </c>
@@ -9603,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
         <v>47</v>
       </c>
@@ -9635,12 +9646,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="323" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
         <v>47</v>
       </c>
@@ -9672,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
         <v>47</v>
       </c>
@@ -9704,7 +9715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
         <v>47</v>
       </c>
@@ -9736,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
         <v>47</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
         <v>47</v>
       </c>
@@ -9800,7 +9811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
         <v>2</v>
       </c>
@@ -10029,7 +10040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>2</v>
       </c>
@@ -10258,7 +10269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
         <v>2</v>
       </c>
@@ -10487,7 +10498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
         <v>2</v>
       </c>
@@ -10716,12 +10727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="361" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
         <v>64</v>
       </c>
@@ -10753,7 +10764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
         <v>64</v>
       </c>
@@ -10785,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
         <v>64</v>
       </c>
@@ -10817,7 +10828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>64</v>
       </c>
@@ -10849,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>64</v>
       </c>
@@ -10881,7 +10892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
         <v>64</v>
       </c>
@@ -10913,7 +10924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
         <v>64</v>
       </c>
@@ -10945,12 +10956,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
         <v>66</v>
       </c>
@@ -10982,7 +10993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
         <v>66</v>
       </c>
@@ -11014,7 +11025,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
         <v>66</v>
       </c>
@@ -11046,7 +11057,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
         <v>66</v>
       </c>
@@ -11078,7 +11089,7 @@
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
         <v>66</v>
       </c>
@@ -11110,12 +11121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
         <v>66</v>
       </c>
@@ -11147,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
         <v>66</v>
       </c>
@@ -11179,7 +11190,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
         <v>66</v>
       </c>
@@ -11211,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
         <v>66</v>
       </c>
@@ -11243,7 +11254,7 @@
         <v>0.11899999999999999</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
         <v>66</v>
       </c>
@@ -11275,12 +11286,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
         <v>64</v>
       </c>
@@ -11312,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>64</v>
       </c>
@@ -11344,7 +11355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>64</v>
       </c>
@@ -11376,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
         <v>64</v>
       </c>
@@ -11408,7 +11419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
         <v>64</v>
       </c>
@@ -11440,7 +11451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
         <v>64</v>
       </c>
@@ -11472,7 +11483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
         <v>64</v>
       </c>
@@ -11504,12 +11515,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="389" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
         <v>66</v>
       </c>
@@ -11541,7 +11552,7 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
         <v>66</v>
       </c>
@@ -11573,7 +11584,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
         <v>66</v>
       </c>
@@ -11605,7 +11616,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
         <v>66</v>
       </c>
@@ -11637,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
         <v>66</v>
       </c>
@@ -11669,12 +11680,12 @@
         <v>3.1E-2</v>
       </c>
     </row>
-    <row r="394" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
         <v>66</v>
       </c>
@@ -11706,7 +11717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
         <v>66</v>
       </c>
@@ -11738,7 +11749,7 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="397" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2" t="s">
         <v>66</v>
       </c>
@@ -11770,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2" t="s">
         <v>66</v>
       </c>
@@ -11802,7 +11813,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2" t="s">
         <v>66</v>
       </c>
@@ -11834,12 +11845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2" t="s">
         <v>64</v>
       </c>
@@ -11871,7 +11882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2" t="s">
         <v>64</v>
       </c>
@@ -11903,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2" t="s">
         <v>64</v>
       </c>
@@ -11935,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
         <v>69</v>
       </c>
@@ -11967,7 +11978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
         <v>69</v>
       </c>
@@ -11999,7 +12010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
         <v>66</v>
       </c>
@@ -12031,7 +12042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
         <v>64</v>
       </c>
@@ -12063,12 +12074,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2" t="s">
         <v>66</v>
       </c>
@@ -12100,7 +12111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2" t="s">
         <v>66</v>
       </c>
@@ -12132,7 +12143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2" t="s">
         <v>66</v>
       </c>
@@ -12164,7 +12175,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="412" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2" t="s">
         <v>66</v>
       </c>
@@ -12196,7 +12207,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" s="1" t="s">
         <v>66</v>
       </c>
@@ -12228,7 +12239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
         <v>71</v>
       </c>
@@ -12260,7 +12271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2" t="s">
         <v>71</v>
       </c>
@@ -12292,7 +12303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2" t="s">
         <v>71</v>
       </c>
@@ -12324,7 +12335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
         <v>71</v>
       </c>
@@ -12356,7 +12367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
         <v>71</v>
       </c>
@@ -12388,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2" t="s">
         <v>71</v>
       </c>
@@ -12420,7 +12431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>71</v>
       </c>
@@ -12452,12 +12463,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
         <v>73</v>
       </c>
@@ -12489,7 +12500,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="423" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
         <v>73</v>
       </c>
@@ -12521,7 +12532,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="424" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
         <v>73</v>
       </c>
@@ -12553,7 +12564,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="425" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2" t="s">
         <v>73</v>
       </c>
@@ -12585,7 +12596,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
         <v>73</v>
       </c>
@@ -12617,12 +12628,12 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
         <v>71</v>
       </c>
@@ -12654,7 +12665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2" t="s">
         <v>71</v>
       </c>
@@ -12686,7 +12697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2" t="s">
         <v>71</v>
       </c>
@@ -12718,7 +12729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
         <v>71</v>
       </c>
@@ -12750,7 +12761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
         <v>71</v>
       </c>
@@ -12782,7 +12793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
         <v>71</v>
       </c>
@@ -12814,7 +12825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
         <v>71</v>
       </c>
@@ -12846,12 +12857,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
         <v>73</v>
       </c>
@@ -12883,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>73</v>
       </c>
@@ -12915,7 +12926,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>73</v>
       </c>
@@ -12947,7 +12958,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2" t="s">
         <v>73</v>
       </c>
@@ -12979,7 +12990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" s="1" t="s">
         <v>73</v>
       </c>
@@ -13012,7 +13023,25 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J413"/>
+  <autoFilter ref="A1:J440">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="PS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_table.xlsx
+++ b/data_table.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$440</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$J$454</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="78">
   <si>
     <t>Recall</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t xml:space="preserve"> 0.286 (Avg) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    NC  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.316 (Avg) </t>
   </si>
 </sst>
 </file>
@@ -602,10 +611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J440"/>
+  <dimension ref="A1:J454"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I438" sqref="I438:J438"/>
+      <selection activeCell="I453" sqref="I453:J453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9816,7 +9825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
         <v>55</v>
       </c>
@@ -9848,7 +9857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
         <v>56</v>
       </c>
@@ -9880,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
         <v>55</v>
       </c>
@@ -9912,7 +9921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
         <v>55</v>
       </c>
@@ -9944,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
         <v>55</v>
       </c>
@@ -9976,7 +9985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
         <v>55</v>
       </c>
@@ -10008,7 +10017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>55</v>
       </c>
@@ -10045,7 +10054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="337" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
         <v>55</v>
       </c>
@@ -10077,7 +10086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
         <v>55</v>
       </c>
@@ -10109,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
         <v>55</v>
       </c>
@@ -10141,7 +10150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
         <v>55</v>
       </c>
@@ -10173,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
         <v>55</v>
       </c>
@@ -10205,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
         <v>56</v>
       </c>
@@ -10237,7 +10246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
         <v>55</v>
       </c>
@@ -10274,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>55</v>
       </c>
@@ -10306,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
         <v>55</v>
       </c>
@@ -10338,7 +10347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>55</v>
       </c>
@@ -10370,7 +10379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>56</v>
       </c>
@@ -10402,7 +10411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>56</v>
       </c>
@@ -10434,7 +10443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>56</v>
       </c>
@@ -10466,7 +10475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
         <v>56</v>
       </c>
@@ -10503,7 +10512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
         <v>55</v>
       </c>
@@ -10535,7 +10544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>55</v>
       </c>
@@ -10567,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>55</v>
       </c>
@@ -10599,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
         <v>55</v>
       </c>
@@ -10631,7 +10640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
         <v>55</v>
       </c>
@@ -10663,7 +10672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
         <v>55</v>
       </c>
@@ -10695,7 +10704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" ht="15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
         <v>55</v>
       </c>
@@ -13022,11 +13031,397 @@
         <v>2.7E-2</v>
       </c>
     </row>
+    <row r="441" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A442" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B442" t="s">
+        <v>14</v>
+      </c>
+      <c r="C442">
+        <v>4244356</v>
+      </c>
+      <c r="D442">
+        <v>47159</v>
+      </c>
+      <c r="E442">
+        <v>50</v>
+      </c>
+      <c r="F442" t="s">
+        <v>15</v>
+      </c>
+      <c r="G442" t="s">
+        <v>15</v>
+      </c>
+      <c r="H442">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="I442" t="s">
+        <v>15</v>
+      </c>
+      <c r="J442" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A443" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B443" t="s">
+        <v>17</v>
+      </c>
+      <c r="C443">
+        <v>4244356</v>
+      </c>
+      <c r="D443">
+        <v>47159</v>
+      </c>
+      <c r="E443">
+        <v>50</v>
+      </c>
+      <c r="F443" t="s">
+        <v>15</v>
+      </c>
+      <c r="G443" t="s">
+        <v>15</v>
+      </c>
+      <c r="H443">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="I443" t="s">
+        <v>15</v>
+      </c>
+      <c r="J443" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A444" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B444" t="s">
+        <v>18</v>
+      </c>
+      <c r="C444">
+        <v>4244356</v>
+      </c>
+      <c r="D444">
+        <v>47159</v>
+      </c>
+      <c r="E444" t="s">
+        <v>15</v>
+      </c>
+      <c r="F444">
+        <v>50</v>
+      </c>
+      <c r="G444" t="s">
+        <v>19</v>
+      </c>
+      <c r="H444">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="I444" t="s">
+        <v>15</v>
+      </c>
+      <c r="J444" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A445" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B445" t="s">
+        <v>20</v>
+      </c>
+      <c r="C445">
+        <v>4244356</v>
+      </c>
+      <c r="D445">
+        <v>47159</v>
+      </c>
+      <c r="E445">
+        <v>50</v>
+      </c>
+      <c r="F445" t="s">
+        <v>15</v>
+      </c>
+      <c r="G445">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="H445" t="s">
+        <v>15</v>
+      </c>
+      <c r="I445" t="s">
+        <v>15</v>
+      </c>
+      <c r="J445" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A446" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B446" t="s">
+        <v>21</v>
+      </c>
+      <c r="C446">
+        <v>4244356</v>
+      </c>
+      <c r="D446">
+        <v>47159</v>
+      </c>
+      <c r="E446">
+        <v>50</v>
+      </c>
+      <c r="F446" t="s">
+        <v>19</v>
+      </c>
+      <c r="G446" t="s">
+        <v>15</v>
+      </c>
+      <c r="H446">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="I446" t="s">
+        <v>15</v>
+      </c>
+      <c r="J446" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A447" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B447" t="s">
+        <v>18</v>
+      </c>
+      <c r="C447">
+        <v>4244356</v>
+      </c>
+      <c r="D447">
+        <v>47159</v>
+      </c>
+      <c r="E447">
+        <v>50</v>
+      </c>
+      <c r="F447" t="s">
+        <v>19</v>
+      </c>
+      <c r="G447" t="s">
+        <v>15</v>
+      </c>
+      <c r="H447" t="s">
+        <v>72</v>
+      </c>
+      <c r="I447" t="s">
+        <v>15</v>
+      </c>
+      <c r="J447" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A448" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B448" t="s">
+        <v>21</v>
+      </c>
+      <c r="C448">
+        <v>4244356</v>
+      </c>
+      <c r="D448">
+        <v>4719</v>
+      </c>
+      <c r="E448">
+        <v>50</v>
+      </c>
+      <c r="F448" t="s">
+        <v>15</v>
+      </c>
+      <c r="G448" t="s">
+        <v>15</v>
+      </c>
+      <c r="H448" t="s">
+        <v>77</v>
+      </c>
+      <c r="I448" t="s">
+        <v>15</v>
+      </c>
+      <c r="J448" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A449" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B449" t="s">
+        <v>14</v>
+      </c>
+      <c r="C449">
+        <v>4244356</v>
+      </c>
+      <c r="D449">
+        <v>471</v>
+      </c>
+      <c r="E449">
+        <v>50</v>
+      </c>
+      <c r="F449" t="s">
+        <v>24</v>
+      </c>
+      <c r="G449">
+        <v>2</v>
+      </c>
+      <c r="H449" t="s">
+        <v>15</v>
+      </c>
+      <c r="I449">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J449">
+        <v>3.5700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A450" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B450" t="s">
+        <v>17</v>
+      </c>
+      <c r="C450">
+        <v>4244356</v>
+      </c>
+      <c r="D450">
+        <v>471</v>
+      </c>
+      <c r="E450">
+        <v>50</v>
+      </c>
+      <c r="F450" t="s">
+        <v>24</v>
+      </c>
+      <c r="G450">
+        <v>2</v>
+      </c>
+      <c r="H450" t="s">
+        <v>15</v>
+      </c>
+      <c r="I450">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J450">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A451" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B451" t="s">
+        <v>18</v>
+      </c>
+      <c r="C451">
+        <v>4244356</v>
+      </c>
+      <c r="D451">
+        <v>471</v>
+      </c>
+      <c r="E451">
+        <v>50</v>
+      </c>
+      <c r="F451" t="s">
+        <v>15</v>
+      </c>
+      <c r="G451">
+        <v>2</v>
+      </c>
+      <c r="H451" t="s">
+        <v>15</v>
+      </c>
+      <c r="I451">
+        <v>6.3E-2</v>
+      </c>
+      <c r="J451">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="452" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="A452" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B452" t="s">
+        <v>20</v>
+      </c>
+      <c r="C452">
+        <v>4244356</v>
+      </c>
+      <c r="D452">
+        <v>471</v>
+      </c>
+      <c r="E452">
+        <v>50</v>
+      </c>
+      <c r="F452" t="s">
+        <v>24</v>
+      </c>
+      <c r="G452">
+        <v>2</v>
+      </c>
+      <c r="H452" t="s">
+        <v>15</v>
+      </c>
+      <c r="I452">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J452">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="453" spans="1:10" ht="15" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B453" t="s">
+        <v>21</v>
+      </c>
+      <c r="C453">
+        <v>4244356</v>
+      </c>
+      <c r="D453">
+        <v>471</v>
+      </c>
+      <c r="E453">
+        <v>50</v>
+      </c>
+      <c r="F453" t="s">
+        <v>24</v>
+      </c>
+      <c r="G453">
+        <v>2</v>
+      </c>
+      <c r="H453" t="s">
+        <v>15</v>
+      </c>
+      <c r="I453">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J453">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="454" spans="1:10" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:J440">
+  <autoFilter ref="A1:J454">
     <filterColumn colId="0">
       <filters>
-        <filter val="PS"/>
+        <filter val="NC"/>
       </filters>
     </filterColumn>
   </autoFilter>
